--- a/biology/Médecine/Processus_styloïde/Processus_styloïde.xlsx
+++ b/biology/Médecine/Processus_styloïde/Processus_styloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_stylo%C3%AFde</t>
+          <t>Processus_styloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un processus styloïde, ou apophyse styloïde, est une protubérance osseuse allongée et pointue en forme de stylet.  L'expression dérive du terme processus qui en son sens concret signifie "poussée", "avancement", ainsi que du nom latin stilus signifiant "pointe".
 L'anatomie humaine présente plusieurs processus styloïdes, mesurant en général de 10 à 15 mm :
